--- a/documentacao/Catalogo_Metadados.xlsx
+++ b/documentacao/Catalogo_Metadados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lilian\MBA\Material\4-Engenharia de dados\99-Projeto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCCF43-3598-45C6-9676-B78D0C7DED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E917B23-3D80-4094-99D3-3520631714C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1968" windowWidth="12132" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadados" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="195">
   <si>
     <t>hr</t>
   </si>
@@ -216,27 +216,12 @@
     <t>FK</t>
   </si>
   <si>
-    <t>Identifies a route.</t>
-  </si>
-  <si>
     <t>routes</t>
   </si>
   <si>
-    <t>Full name of a route. </t>
-  </si>
-  <si>
-    <t>Agency for the specified route.</t>
-  </si>
-  <si>
     <t>shapes</t>
   </si>
   <si>
-    <t>Full name of a route. (From routes.txt)</t>
-  </si>
-  <si>
-    <t>Agency for the specified route. (From routes.txt)</t>
-  </si>
-  <si>
     <t>Tempo de duração da viagem (a partir do rquivo STOP_TIMES.txt: ARRIVAL_TIME de STOP_ID = 1 – DEPARTURE_TIME do último STOP_ID relacionado a essa viagem)</t>
   </si>
   <si>
@@ -244,24 +229,6 @@
   </si>
   <si>
     <t>stop_seq</t>
-  </si>
-  <si>
-    <t>Identifies a shape.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence in which the shape points connect to form the shape. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude of a shape point. </t>
-  </si>
-  <si>
-    <t>Longitude of a shape point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual distance traveled along the shape from the first shape point to the point specified in this record. </t>
-  </si>
-  <si>
-    <t>Identifies a trip.(From trips.txt)</t>
   </si>
   <si>
     <t>Identifies a route.(From trips.txt)</t>
@@ -625,6 +592,45 @@
   </si>
   <si>
     <t>Identifica a agência de trânsito (do arquivo routes.txt)</t>
+  </si>
+  <si>
+    <t>Identifica uma rota (do arquivo routes.txt)</t>
+  </si>
+  <si>
+    <t>Nome completo da rota</t>
+  </si>
+  <si>
+    <t>Identifica a agência de trânsito</t>
+  </si>
+  <si>
+    <t>Sequência de pontos do percurso para uma viagem/linha em particular</t>
+  </si>
+  <si>
+    <t>Latitude do ponto do percurso</t>
+  </si>
+  <si>
+    <t>Longitude do ponto do percurso</t>
+  </si>
+  <si>
+    <t>Distância percorrida ao longo do percurso, do primeiro ponto até o ponto especificado nesse registrado</t>
+  </si>
+  <si>
+    <t>Identifica uma viagem/linha (do arquivo trips.txt)</t>
+  </si>
+  <si>
+    <t>Diferença entre planejado e realizado (VS_T – VS_TA) em minutos</t>
+  </si>
+  <si>
+    <t>Ano de VS_TA</t>
+  </si>
+  <si>
+    <t>Mês de VS_TA</t>
+  </si>
+  <si>
+    <t>Data de VS_TA</t>
+  </si>
+  <si>
+    <t>Dia da semana de VS_TA</t>
   </si>
 </sst>
 </file>
@@ -647,13 +653,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,11 +692,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -973,1095 +981,1179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B068174-7881-4CFF-A249-ABFB02C576CA}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D35" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D89" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D93" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="D97" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B98" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>100</v>
+      <c r="D98" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2083,22 +2175,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2127,25 +2219,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -2153,30 +2245,30 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -2187,13 +2279,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2204,13 +2296,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2221,13 +2313,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2238,13 +2330,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -2255,13 +2347,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2272,13 +2364,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -2289,47 +2381,47 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -2340,13 +2432,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -2357,13 +2449,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -2374,13 +2466,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -2391,13 +2483,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -2408,13 +2500,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -2425,13 +2517,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -2442,27 +2534,27 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -2473,13 +2565,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -2490,13 +2582,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -2507,13 +2599,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2524,13 +2616,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2541,30 +2633,30 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
         <v>133</v>
       </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -2575,13 +2667,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -2592,13 +2684,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -2609,13 +2701,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2626,13 +2718,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -2643,30 +2735,30 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2677,13 +2769,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2694,13 +2786,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -2711,13 +2803,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2728,13 +2820,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -2745,47 +2837,47 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
@@ -2796,19 +2888,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H40" t="s">
         <v>31</v>
@@ -2816,22 +2908,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -2839,22 +2931,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -2862,22 +2954,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H43" t="s">
         <v>33</v>
@@ -2885,13 +2977,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>0</v>
@@ -2902,36 +2994,36 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
         <v>152</v>
       </c>
-      <c r="C45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" t="s">
-        <v>163</v>
-      </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
         <v>152</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" t="s">
-        <v>163</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
@@ -2942,102 +3034,102 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
         <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" t="s">
-        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>152</v>
       </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
-        <v>163</v>
-      </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H48" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
         <v>152</v>
       </c>
-      <c r="C49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" t="s">
-        <v>163</v>
-      </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
         <v>162</v>
-      </c>
-      <c r="B51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" t="s">
-        <v>173</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
@@ -3045,22 +3137,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
         <v>152</v>
       </c>
-      <c r="C52" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" t="s">
-        <v>163</v>
-      </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H52" t="s">
         <v>6</v>
@@ -3068,22 +3160,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
         <v>152</v>
       </c>
-      <c r="C53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" t="s">
         <v>163</v>
-      </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" t="s">
-        <v>174</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
@@ -3091,19 +3183,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
         <v>152</v>
       </c>
-      <c r="C54" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" t="s">
-        <v>163</v>
-      </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -3114,19 +3206,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
         <v>152</v>
       </c>
-      <c r="C55" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" t="s">
-        <v>163</v>
-      </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -3137,27 +3229,27 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -3168,19 +3260,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
         <v>162</v>
-      </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" t="s">
-        <v>173</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -3188,19 +3280,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H59" t="s">
         <v>6</v>
@@ -3208,19 +3300,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
@@ -3228,16 +3320,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -3248,16 +3340,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -3268,16 +3360,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
@@ -3285,30 +3377,30 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" t="s">
         <v>133</v>
       </c>
-      <c r="D64" t="s">
-        <v>144</v>
-      </c>
       <c r="H64" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3319,36 +3411,36 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
@@ -3359,102 +3451,102 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H70" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H71" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" t="s">
         <v>162</v>
-      </c>
-      <c r="B72" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" t="s">
-        <v>173</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -3462,22 +3554,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H73" t="s">
         <v>6</v>
@@ -3485,22 +3577,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" t="s">
         <v>163</v>
-      </c>
-      <c r="E74" t="s">
-        <v>172</v>
-      </c>
-      <c r="F74" t="s">
-        <v>174</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
@@ -3508,19 +3600,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -3531,19 +3623,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -3554,41 +3646,41 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
         <v>133</v>
-      </c>
-      <c r="D78" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -3599,16 +3691,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3619,16 +3711,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -3639,16 +3731,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -3659,16 +3751,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -3679,42 +3771,42 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" t="s">
         <v>152</v>
       </c>
-      <c r="C84" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" t="s">
-        <v>173</v>
-      </c>
-      <c r="E84" t="s">
-        <v>163</v>
-      </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" t="s">
         <v>152</v>
-      </c>
-      <c r="C85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" t="s">
-        <v>173</v>
-      </c>
-      <c r="E85" t="s">
-        <v>163</v>
       </c>
       <c r="F85" t="s">
         <v>2</v>
@@ -3725,117 +3817,117 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
         <v>152</v>
-      </c>
-      <c r="C86" t="s">
-        <v>133</v>
-      </c>
-      <c r="D86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" t="s">
-        <v>163</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" t="s">
         <v>152</v>
       </c>
-      <c r="C87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" t="s">
-        <v>163</v>
-      </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" t="s">
         <v>152</v>
       </c>
-      <c r="C88" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" t="s">
-        <v>163</v>
-      </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H88" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" t="s">
         <v>152</v>
       </c>
-      <c r="C89" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" t="s">
-        <v>163</v>
-      </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H89" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" t="s">
         <v>152</v>
       </c>
-      <c r="C90" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" t="s">
-        <v>173</v>
-      </c>
-      <c r="E90" t="s">
-        <v>163</v>
-      </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G90" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H90" t="s">
         <v>5</v>
@@ -3843,25 +3935,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" t="s">
         <v>152</v>
       </c>
-      <c r="C91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" t="s">
         <v>173</v>
-      </c>
-      <c r="E91" t="s">
-        <v>163</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
-      </c>
-      <c r="G91" t="s">
-        <v>184</v>
       </c>
       <c r="H91" t="s">
         <v>16</v>
@@ -3869,25 +3961,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" t="s">
         <v>152</v>
       </c>
-      <c r="C92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" t="s">
-        <v>173</v>
-      </c>
-      <c r="E92" t="s">
-        <v>163</v>
-      </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
@@ -3895,25 +3987,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" t="s">
         <v>152</v>
       </c>
-      <c r="C93" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" t="s">
-        <v>173</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" t="s">
         <v>163</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
-      </c>
-      <c r="G93" t="s">
-        <v>174</v>
       </c>
       <c r="H93" t="s">
         <v>7</v>
@@ -3921,22 +4013,22 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" t="s">
         <v>152</v>
       </c>
-      <c r="C94" t="s">
-        <v>142</v>
-      </c>
-      <c r="D94" t="s">
-        <v>173</v>
-      </c>
-      <c r="E94" t="s">
-        <v>163</v>
-      </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G94" t="s">
         <v>8</v>
@@ -3947,22 +4039,22 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" t="s">
         <v>152</v>
       </c>
-      <c r="C95" t="s">
-        <v>142</v>
-      </c>
-      <c r="D95" t="s">
-        <v>173</v>
-      </c>
-      <c r="E95" t="s">
-        <v>163</v>
-      </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
@@ -3973,30 +4065,30 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" t="s">
         <v>133</v>
       </c>
-      <c r="D96" t="s">
-        <v>144</v>
-      </c>
       <c r="H96" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
@@ -4007,16 +4099,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4027,16 +4119,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -4047,16 +4139,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -4067,16 +4159,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -4087,22 +4179,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E102" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H102" t="s">
         <v>5</v>
@@ -4110,22 +4202,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E103" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H103" t="s">
         <v>16</v>
@@ -4133,22 +4225,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E104" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H104" t="s">
         <v>6</v>
@@ -4156,22 +4248,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E105" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F105" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H105" t="s">
         <v>7</v>
@@ -4179,19 +4271,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E106" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
@@ -4202,19 +4294,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -4225,27 +4317,27 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
@@ -4256,16 +4348,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4276,16 +4368,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -4296,16 +4388,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -4316,16 +4408,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -4336,42 +4428,42 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F114" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H114" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E115" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F115" t="s">
         <v>2</v>
@@ -4382,117 +4474,117 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D117" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E117" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F117" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H117" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H118" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E119" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H119" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F120" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G120" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H120" t="s">
         <v>5</v>
@@ -4500,25 +4592,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D121" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" t="s">
+        <v>152</v>
+      </c>
+      <c r="F121" t="s">
+        <v>161</v>
+      </c>
+      <c r="G121" t="s">
         <v>173</v>
-      </c>
-      <c r="E121" t="s">
-        <v>163</v>
-      </c>
-      <c r="F121" t="s">
-        <v>172</v>
-      </c>
-      <c r="G121" t="s">
-        <v>184</v>
       </c>
       <c r="H121" t="s">
         <v>16</v>
@@ -4526,25 +4618,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F122" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H122" t="s">
         <v>6</v>
@@ -4552,25 +4644,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D123" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E123" t="s">
+        <v>152</v>
+      </c>
+      <c r="F123" t="s">
+        <v>161</v>
+      </c>
+      <c r="G123" t="s">
         <v>163</v>
-      </c>
-      <c r="F123" t="s">
-        <v>172</v>
-      </c>
-      <c r="G123" t="s">
-        <v>174</v>
       </c>
       <c r="H123" t="s">
         <v>7</v>
@@ -4578,22 +4670,22 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D124" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F124" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -4604,22 +4696,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F125" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
